--- a/study01/report/motivation/scr-effective-participants/interest-enjoyment/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-effective-participants/interest-enjoyment/by-Type/NonParametricAnalysis.xlsx
@@ -17333,13 +17333,13 @@
         <v>70.5</v>
       </c>
       <c r="G7" t="n" s="368">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H7" t="n" s="369">
         <v>0.9422210916018966</v>
       </c>
       <c r="I7" t="n" s="370">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J7" t="s" s="371">
         <v>39</v>
@@ -17365,13 +17365,13 @@
         <v>70.5</v>
       </c>
       <c r="G8" t="n" s="368">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H8" t="n" s="369">
         <v>0.9422210916018966</v>
       </c>
       <c r="I8" t="n" s="370">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J8" t="s" s="371">
         <v>39</v>
@@ -17434,13 +17434,13 @@
         <v>70.5</v>
       </c>
       <c r="G11" t="n" s="396">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H11" t="n" s="397">
         <v>0.06322392777501136</v>
       </c>
       <c r="I11" t="n" s="398">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J11" t="s" s="399">
         <v>39</v>
@@ -17466,13 +17466,13 @@
         <v>70.5</v>
       </c>
       <c r="G12" t="n" s="396">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H12" t="n" s="397">
         <v>0.06322392777501136</v>
       </c>
       <c r="I12" t="n" s="398">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J12" t="s" s="399">
         <v>39</v>
@@ -17535,13 +17535,13 @@
         <v>70.5</v>
       </c>
       <c r="G15" t="n" s="424">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H15" t="n" s="425">
         <v>0.12644785555002272</v>
       </c>
       <c r="I15" t="n" s="426">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J15" t="s" s="427">
         <v>39</v>
@@ -17567,13 +17567,13 @@
         <v>70.5</v>
       </c>
       <c r="G16" t="n" s="424">
-        <v>1.5596541105008292</v>
+        <v>1.559654110500829</v>
       </c>
       <c r="H16" t="n" s="425">
         <v>0.12644785555002272</v>
       </c>
       <c r="I16" t="n" s="426">
-        <v>0.34874926124668226</v>
+        <v>0.3487492612466822</v>
       </c>
       <c r="J16" t="s" s="427">
         <v>39</v>
@@ -25344,13 +25344,13 @@
         <v>45.0</v>
       </c>
       <c r="G7" t="n" s="869">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H7" t="n" s="870">
         <v>0.07443699343685883</v>
       </c>
       <c r="I7" t="n" s="871">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J7" t="s" s="872">
         <v>45</v>
@@ -25376,13 +25376,13 @@
         <v>45.0</v>
       </c>
       <c r="G8" t="n" s="869">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H8" t="n" s="870">
         <v>0.07443699343685883</v>
       </c>
       <c r="I8" t="n" s="871">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J8" t="s" s="872">
         <v>45</v>
@@ -25445,13 +25445,13 @@
         <v>45.0</v>
       </c>
       <c r="G11" t="n" s="897">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H11" t="n" s="898">
         <v>0.9296318277675123</v>
       </c>
       <c r="I11" t="n" s="899">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J11" t="s" s="900">
         <v>45</v>
@@ -25477,13 +25477,13 @@
         <v>45.0</v>
       </c>
       <c r="G12" t="n" s="897">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H12" t="n" s="898">
         <v>0.9296318277675123</v>
       </c>
       <c r="I12" t="n" s="899">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J12" t="s" s="900">
         <v>45</v>
@@ -25546,13 +25546,13 @@
         <v>45.0</v>
       </c>
       <c r="G15" t="n" s="925">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H15" t="n" s="926">
         <v>0.1488933622127861</v>
       </c>
       <c r="I15" t="n" s="927">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J15" t="s" s="928">
         <v>45</v>
@@ -25578,13 +25578,13 @@
         <v>45.0</v>
       </c>
       <c r="G16" t="n" s="925">
-        <v>-1.4670428070201107</v>
+        <v>-1.4670428070201103</v>
       </c>
       <c r="H16" t="n" s="926">
         <v>0.1488933622127861</v>
       </c>
       <c r="I16" t="n" s="927">
-        <v>0.29945885900163355</v>
+        <v>0.2994588590016335</v>
       </c>
       <c r="J16" t="s" s="928">
         <v>45</v>
@@ -30922,13 +30922,13 @@
         <v>84.0</v>
       </c>
       <c r="G7" t="n" s="1203">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H7" t="n" s="1204">
         <v>0.2659212645139419</v>
       </c>
       <c r="I7" t="n" s="1205">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J7" t="s" s="1206">
         <v>45</v>
@@ -30954,13 +30954,13 @@
         <v>84.0</v>
       </c>
       <c r="G8" t="n" s="1203">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H8" t="n" s="1204">
         <v>0.2659212645139419</v>
       </c>
       <c r="I8" t="n" s="1205">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J8" t="s" s="1206">
         <v>45</v>
@@ -31023,13 +31023,13 @@
         <v>84.0</v>
       </c>
       <c r="G11" t="n" s="1231">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H11" t="n" s="1232">
         <v>0.7414302558043304</v>
       </c>
       <c r="I11" t="n" s="1233">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J11" t="s" s="1234">
         <v>45</v>
@@ -31055,13 +31055,13 @@
         <v>84.0</v>
       </c>
       <c r="G12" t="n" s="1231">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H12" t="n" s="1232">
         <v>0.7414302558043304</v>
       </c>
       <c r="I12" t="n" s="1233">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J12" t="s" s="1234">
         <v>45</v>
@@ -31124,13 +31124,13 @@
         <v>84.0</v>
       </c>
       <c r="G15" t="n" s="1259">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H15" t="n" s="1260">
         <v>0.5318425290278838</v>
       </c>
       <c r="I15" t="n" s="1261">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J15" t="s" s="1262">
         <v>45</v>
@@ -31156,13 +31156,13 @@
         <v>84.0</v>
       </c>
       <c r="G16" t="n" s="1259">
-        <v>-0.6454794369300905</v>
+        <v>-0.6454794369300906</v>
       </c>
       <c r="H16" t="n" s="1260">
         <v>0.5318425290278838</v>
       </c>
       <c r="I16" t="n" s="1261">
-        <v>0.12198414760878717</v>
+        <v>0.1219841476087872</v>
       </c>
       <c r="J16" t="s" s="1262">
         <v>45</v>
